--- a/ClosedXML.Tests/Resource/Examples/Styles/UsingColors.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/UsingColors.xlsx
@@ -515,7 +515,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="43.960625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="43.320625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/UsingColors.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/UsingColors.xlsx
@@ -515,7 +515,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="36.210625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="34.380625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/UsingColors.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/UsingColors.xlsx
@@ -515,7 +515,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="34.380625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="44.510625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/UsingColors.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/UsingColors.xlsx
@@ -515,7 +515,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="44.510625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="46.600625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/UsingColors.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/UsingColors.xlsx
@@ -515,7 +515,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="46.600625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="43.61367" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/UsingColors.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/UsingColors.xlsx
@@ -515,7 +515,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="43.960625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="44.010625" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/UsingColors.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/UsingColors.xlsx
@@ -519,73 +519,73 @@
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">
-      <x:c r="A1" s="1" t="s"/>
+      <x:c r="A1" s="1"/>
       <x:c r="B1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
     </x:row>
     <x:row r="2" spans="1:2">
-      <x:c r="A2" s="2" t="s"/>
+      <x:c r="A2" s="2"/>
       <x:c r="B2" s="0" t="s">
         <x:v>1</x:v>
       </x:c>
     </x:row>
     <x:row r="4" spans="1:2">
-      <x:c r="A4" s="3" t="s"/>
+      <x:c r="A4" s="3"/>
       <x:c r="B4" s="0" t="s">
         <x:v>2</x:v>
       </x:c>
     </x:row>
     <x:row r="5" spans="1:2">
-      <x:c r="A5" s="3" t="s"/>
+      <x:c r="A5" s="3"/>
       <x:c r="B5" s="0" t="s">
         <x:v>3</x:v>
       </x:c>
     </x:row>
     <x:row r="6" spans="1:2">
-      <x:c r="A6" s="4" t="s"/>
+      <x:c r="A6" s="4"/>
       <x:c r="B6" s="0" t="s">
         <x:v>4</x:v>
       </x:c>
     </x:row>
     <x:row r="7" spans="1:2">
-      <x:c r="A7" s="3" t="s"/>
+      <x:c r="A7" s="3"/>
       <x:c r="B7" s="0" t="s">
         <x:v>5</x:v>
       </x:c>
     </x:row>
     <x:row r="9" spans="1:2">
-      <x:c r="A9" s="1" t="s"/>
+      <x:c r="A9" s="1"/>
       <x:c r="B9" s="0" t="s">
         <x:v>6</x:v>
       </x:c>
     </x:row>
     <x:row r="11" spans="1:2">
-      <x:c r="A11" s="5" t="s"/>
+      <x:c r="A11" s="5"/>
       <x:c r="B11" s="0" t="s">
         <x:v>7</x:v>
       </x:c>
     </x:row>
     <x:row r="13" spans="1:2">
-      <x:c r="A13" s="6" t="s"/>
+      <x:c r="A13" s="6"/>
       <x:c r="B13" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
     </x:row>
     <x:row r="15" spans="1:2">
-      <x:c r="A15" s="7" t="s"/>
+      <x:c r="A15" s="7"/>
       <x:c r="B15" s="0" t="s">
         <x:v>9</x:v>
       </x:c>
     </x:row>
     <x:row r="17" spans="1:2">
-      <x:c r="A17" s="8" t="s"/>
+      <x:c r="A17" s="8"/>
       <x:c r="B17" s="0" t="s">
         <x:v>10</x:v>
       </x:c>
     </x:row>
     <x:row r="18" spans="1:2">
-      <x:c r="A18" s="9" t="s"/>
+      <x:c r="A18" s="9"/>
       <x:c r="B18" s="0" t="s">
         <x:v>11</x:v>
       </x:c>

--- a/ClosedXML.Tests/Resource/Examples/Styles/UsingColors.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/UsingColors.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:si>
     <x:t>XLColor.Red</x:t>
   </x:si>
@@ -515,7 +515,7 @@
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:cols>
     <x:col min="1" max="1" width="9.140625" style="0" customWidth="1"/>
-    <x:col min="2" max="2" width="44.010625" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="45.282054" style="0" customWidth="1"/>
   </x:cols>
   <x:sheetData>
     <x:row r="1" spans="1:2">

--- a/ClosedXML.Tests/Resource/Examples/Styles/UsingColors.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/UsingColors.xlsx
@@ -504,7 +504,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac">
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>

--- a/ClosedXML.Tests/Resource/Examples/Styles/UsingColors.xlsx
+++ b/ClosedXML.Tests/Resource/Examples/Styles/UsingColors.xlsx
@@ -6,7 +6,7 @@
     <x:workbookView firstSheet="0" activeTab="0"/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet name="Using Colors" sheetId="2" r:id="rId2"/>
+    <x:sheet name="Using Colors" sheetId="1" r:id="rId2"/>
   </x:sheets>
   <x:definedNames/>
   <x:calcPr calcId="125725"/>
